--- a/HW2/HW2.1.xlsx
+++ b/HW2/HW2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2471,7 +2471,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -2841,8 +2841,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2971,7 +2971,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
